--- a/DSC 530 - Data Exploration and Analysis/Project/Data/Vaccination_Rates_by_State_Born_2014-2017.xlsx
+++ b/DSC 530 - Data Exploration and Analysis/Project/Data/Vaccination_Rates_by_State_Born_2014-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/BU/DSC 530 - Data Exploration and Analysis/Patrick.Weatherford-DSC530/Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/Bellevue_University/DSC 530 - Data Exploration and Analysis/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{BA3C48D6-0BF7-4DF4-8D37-7880FC1C0C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4822EDD0-791D-4362-87CA-A44B716B71FC}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{BA3C48D6-0BF7-4DF4-8D37-7880FC1C0C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B550787D-5F01-435A-AF70-FD2C39F4BF5F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5BC90A2C-C630-41C3-9372-BACB2171D815}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5BC90A2C-C630-41C3-9372-BACB2171D815}"/>
   </bookViews>
   <sheets>
     <sheet name="VaccData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="605">
   <si>
     <t>Hep A</t>
   </si>
@@ -1832,25 +1832,28 @@
     <t>Sample Size</t>
   </si>
   <si>
+    <t>Vaccination Coverage among Young Children (0-35 Months) | Data | Centers for Disease Control and Prevention (cdc.gov)</t>
+  </si>
+  <si>
+    <t>Vaccination Coverage among Young Children (0-35 Months) | Data | Centers for Disease Control and Prevention. (2021). Retrieved 2 December 2021, from https://data.cdc.gov/Child-Vaccinations/Vaccination-Coverage-among-Young-Children-0-35-Mon/fhky-rtsk</t>
+  </si>
+  <si>
+    <t>URL:</t>
+  </si>
+  <si>
+    <t>APA:</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Vaccination Rate Estimation %</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Vaccination Coverage among Young Children (0-35 Months) | Data | Centers for Disease Control and Prevention (cdc.gov)</t>
-  </si>
-  <si>
-    <t>Vaccination Coverage among Young Children (0-35 Months) | Data | Centers for Disease Control and Prevention. (2021). Retrieved 2 December 2021, from https://data.cdc.gov/Child-Vaccinations/Vaccination-Coverage-among-Young-Children-0-35-Mon/fhky-rtsk</t>
-  </si>
-  <si>
-    <t>URL:</t>
-  </si>
-  <si>
-    <t>APA:</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Vaccination Rate Estimation %</t>
   </si>
 </sst>
 </file>
@@ -1966,64 +1969,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <border>
         <left style="thin">
@@ -2384,7 +2343,19 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Vaccing (Dose)" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="11">
+        <s v="Hep A (≥1 Dose)"/>
+        <s v="MMR (≥1 Dose)"/>
+        <s v="Varicella (≥1 Dose)"/>
+        <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+        <s v="DTaP (≥3 Doses)"/>
+        <s v="PCV (≥3 Doses)"/>
+        <s v="Polio (≥3 Doses)"/>
+        <s v="Combined 7 Series ()"/>
+        <s v="Hib (Full Series)"/>
+        <s v="Rotavirus ()"/>
+        <s v="Influenza ()"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Geography" numFmtId="0">
       <sharedItems count="50">
@@ -2466,7 +2437,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="87.3"/>
@@ -2476,7 +2447,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="83.6"/>
@@ -2486,7 +2457,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="86.4"/>
@@ -2496,7 +2467,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -2506,7 +2477,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="85.6"/>
@@ -2516,7 +2487,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="84.6"/>
@@ -2526,7 +2497,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="89.8"/>
@@ -2536,7 +2507,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="90"/>
@@ -2546,7 +2517,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="77.2"/>
@@ -2556,7 +2527,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="88.8"/>
@@ -2566,7 +2537,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="84.5"/>
@@ -2576,7 +2547,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="88.4"/>
@@ -2586,7 +2557,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="86.6"/>
@@ -2596,7 +2567,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="86.2"/>
@@ -2606,7 +2577,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="84.1"/>
@@ -2616,7 +2587,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="86.8"/>
@@ -2626,7 +2597,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="81.900000000000006"/>
@@ -2636,7 +2607,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="85.3"/>
@@ -2646,7 +2617,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="84.6"/>
@@ -2656,7 +2627,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="86.5"/>
@@ -2666,7 +2637,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="90.6"/>
@@ -2676,7 +2647,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="87.3"/>
@@ -2686,7 +2657,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="88.5"/>
@@ -2696,7 +2667,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="71.7"/>
@@ -2706,7 +2677,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="78.3"/>
@@ -2716,7 +2687,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="77.3"/>
@@ -2726,7 +2697,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="86.8"/>
@@ -2736,7 +2707,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="85.5"/>
@@ -2746,7 +2717,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="87.5"/>
@@ -2756,7 +2727,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="77.8"/>
@@ -2766,7 +2737,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="88.6"/>
@@ -2776,7 +2747,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="78.400000000000006"/>
@@ -2786,7 +2757,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="82.4"/>
@@ -2796,7 +2767,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="89.3"/>
@@ -2806,7 +2777,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="79.3"/>
@@ -2816,7 +2787,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="85.9"/>
@@ -2826,7 +2797,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="87"/>
@@ -2836,7 +2807,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="86.9"/>
@@ -2846,7 +2817,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -2856,7 +2827,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="86.8"/>
@@ -2866,7 +2837,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="85"/>
@@ -2876,7 +2847,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -2886,7 +2857,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="87.3"/>
@@ -2896,7 +2867,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="87.8"/>
@@ -2906,7 +2877,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="85"/>
@@ -2916,7 +2887,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="88.5"/>
@@ -2926,7 +2897,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="85.7"/>
@@ -2936,7 +2907,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="87.1"/>
@@ -2946,7 +2917,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="83.4"/>
@@ -2956,7 +2927,7 @@
   <r>
     <s v="Hep A"/>
     <s v="≥1 Dose"/>
-    <s v="Hep A (≥1 Dose)"/>
+    <x v="0"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="68.7"/>
@@ -2966,7 +2937,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="91.9"/>
@@ -2976,7 +2947,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="85.3"/>
@@ -2986,7 +2957,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="89.1"/>
@@ -2996,7 +2967,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="91.6"/>
@@ -3006,7 +2977,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="89.9"/>
@@ -3016,7 +2987,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="90.9"/>
@@ -3026,7 +2997,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="92.5"/>
@@ -3036,7 +3007,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="91.7"/>
@@ -3046,7 +3017,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="91"/>
@@ -3056,7 +3027,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="91"/>
@@ -3066,7 +3037,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="88.7"/>
@@ -3076,7 +3047,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="90.3"/>
@@ -3086,7 +3057,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -3096,7 +3067,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="87.4"/>
@@ -3106,7 +3077,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="92.1"/>
@@ -3116,7 +3087,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="89.8"/>
@@ -3126,7 +3097,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="89.7"/>
@@ -3136,7 +3107,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="91.2"/>
@@ -3146,7 +3117,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="92.4"/>
@@ -3156,7 +3127,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="92.5"/>
@@ -3166,7 +3137,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="96.1"/>
@@ -3176,7 +3147,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="90.2"/>
@@ -3186,7 +3157,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="91.5"/>
@@ -3196,7 +3167,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="90.2"/>
@@ -3206,7 +3177,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="88.1"/>
@@ -3216,7 +3187,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -3226,7 +3197,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="93.9"/>
@@ -3236,7 +3207,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="88.7"/>
@@ -3246,7 +3217,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="93.7"/>
@@ -3256,7 +3227,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -3266,7 +3237,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="91.7"/>
@@ -3276,7 +3247,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="90.2"/>
@@ -3286,7 +3257,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="92.7"/>
@@ -3296,7 +3267,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -3306,7 +3277,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="86.2"/>
@@ -3316,7 +3287,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="89.9"/>
@@ -3326,7 +3297,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="90"/>
@@ -3336,7 +3307,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="93.3"/>
@@ -3346,7 +3317,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="95.1"/>
@@ -3356,7 +3327,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="89.2"/>
@@ -3366,7 +3337,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -3376,7 +3347,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="88.9"/>
@@ -3386,7 +3357,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="88.8"/>
@@ -3396,7 +3367,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="89.6"/>
@@ -3406,7 +3377,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="93.5"/>
@@ -3416,7 +3387,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="93.8"/>
@@ -3426,7 +3397,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="90"/>
@@ -3436,7 +3407,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="87"/>
@@ -3446,7 +3417,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="90.7"/>
@@ -3456,7 +3427,7 @@
   <r>
     <s v="MMR"/>
     <s v="≥1 Dose"/>
-    <s v="MMR (≥1 Dose)"/>
+    <x v="1"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="88.1"/>
@@ -3466,7 +3437,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="93.2"/>
@@ -3476,7 +3447,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="82.7"/>
@@ -3486,7 +3457,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="89.7"/>
@@ -3496,7 +3467,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="91.1"/>
@@ -3506,7 +3477,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="89"/>
@@ -3516,7 +3487,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="90.2"/>
@@ -3526,7 +3497,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="91.8"/>
@@ -3536,7 +3507,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="90.5"/>
@@ -3546,7 +3517,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="91.3"/>
@@ -3556,7 +3527,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="90.7"/>
@@ -3566,7 +3537,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="87.6"/>
@@ -3576,7 +3547,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="88.5"/>
@@ -3586,7 +3557,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="92.9"/>
@@ -3596,7 +3567,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="86.7"/>
@@ -3606,7 +3577,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="90.5"/>
@@ -3616,7 +3587,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="88.6"/>
@@ -3626,7 +3597,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -3636,7 +3607,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="90.6"/>
@@ -3646,7 +3617,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="89.4"/>
@@ -3656,7 +3627,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="92.1"/>
@@ -3666,7 +3637,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="95.5"/>
@@ -3676,7 +3647,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="90.7"/>
@@ -3686,7 +3657,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="91.4"/>
@@ -3696,7 +3667,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -3706,7 +3677,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="87.7"/>
@@ -3716,7 +3687,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="85.3"/>
@@ -3726,7 +3697,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="92.8"/>
@@ -3736,7 +3707,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="88.6"/>
@@ -3746,7 +3717,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="90.9"/>
@@ -3756,7 +3727,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="89.2"/>
@@ -3766,7 +3737,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="90.2"/>
@@ -3776,7 +3747,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="89.1"/>
@@ -3786,7 +3757,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="91.6"/>
@@ -3796,7 +3767,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -3806,7 +3777,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="84.1"/>
@@ -3816,7 +3787,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -3826,7 +3797,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="88"/>
@@ -3836,7 +3807,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="92.3"/>
@@ -3846,7 +3817,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -3856,7 +3827,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="89.8"/>
@@ -3866,7 +3837,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -3876,7 +3847,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="89.9"/>
@@ -3886,7 +3857,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -3896,7 +3867,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="88.3"/>
@@ -3906,7 +3877,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="89.3"/>
@@ -3916,7 +3887,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -3926,7 +3897,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="87.7"/>
@@ -3936,7 +3907,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="87.4"/>
@@ -3946,7 +3917,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="87.9"/>
@@ -3956,7 +3927,7 @@
   <r>
     <s v="Varicella"/>
     <s v="≥1 Dose"/>
-    <s v="Varicella (≥1 Dose)"/>
+    <x v="2"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="86.5"/>
@@ -3966,7 +3937,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="81.7"/>
@@ -3976,7 +3947,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="68.8"/>
@@ -3986,7 +3957,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="79.8"/>
@@ -3996,7 +3967,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="78.8"/>
@@ -4006,7 +3977,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="66.400000000000006"/>
@@ -4016,7 +3987,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="74.3"/>
@@ -4026,7 +3997,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="77.7"/>
@@ -4036,7 +4007,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="77.400000000000006"/>
@@ -4046,7 +4017,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="64.400000000000006"/>
@@ -4056,7 +4027,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="76.5"/>
@@ -4066,7 +4037,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="78.5"/>
@@ -4076,7 +4047,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="73.400000000000006"/>
@@ -4086,7 +4057,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="74.2"/>
@@ -4096,7 +4067,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="79.2"/>
@@ -4106,7 +4077,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="81.900000000000006"/>
@@ -4116,7 +4087,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="75.7"/>
@@ -4126,7 +4097,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="80.400000000000006"/>
@@ -4136,7 +4107,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="76.099999999999994"/>
@@ -4146,7 +4117,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="68.7"/>
@@ -4156,7 +4127,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="76.5"/>
@@ -4166,7 +4137,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="79.5"/>
@@ -4176,7 +4147,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="78.3"/>
@@ -4186,7 +4157,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="71"/>
@@ -4196,7 +4167,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="75.599999999999994"/>
@@ -4206,7 +4177,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="79.7"/>
@@ -4216,7 +4187,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="73.8"/>
@@ -4226,7 +4197,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="82.1"/>
@@ -4236,7 +4207,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="76.8"/>
@@ -4246,7 +4217,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="72.8"/>
@@ -4256,7 +4227,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="65"/>
@@ -4266,7 +4237,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="70"/>
@@ -4276,7 +4247,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="70.3"/>
@@ -4286,7 +4257,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="76.400000000000006"/>
@@ -4296,7 +4267,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="86.2"/>
@@ -4306,7 +4277,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="75.8"/>
@@ -4316,7 +4287,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="76.099999999999994"/>
@@ -4326,7 +4297,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="76"/>
@@ -4336,7 +4307,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="80.5"/>
@@ -4346,7 +4317,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="74.900000000000006"/>
@@ -4356,7 +4327,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="73.5"/>
@@ -4366,7 +4337,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="79.599999999999994"/>
@@ -4376,7 +4347,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="70.400000000000006"/>
@@ -4386,7 +4357,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="77.900000000000006"/>
@@ -4396,7 +4367,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="81.5"/>
@@ -4406,7 +4377,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="56.7"/>
@@ -4416,7 +4387,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="73.099999999999994"/>
@@ -4426,7 +4397,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="72.400000000000006"/>
@@ -4436,7 +4407,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="72.7"/>
@@ -4446,7 +4417,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="80"/>
@@ -4456,7 +4427,7 @@
   <r>
     <s v="Hep B"/>
     <s v="≥1 Dose, 3 Day (Birth Dose)"/>
-    <s v="Hep B (≥1 Dose, 3 Day (Birth Dose))"/>
+    <x v="3"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="65.099999999999994"/>
@@ -4466,7 +4437,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="94.7"/>
@@ -4476,7 +4447,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="89.6"/>
@@ -4486,7 +4457,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="92.9"/>
@@ -4496,7 +4467,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="93.3"/>
@@ -4506,7 +4477,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="93.2"/>
@@ -4516,7 +4487,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="94.4"/>
@@ -4526,7 +4497,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="95.9"/>
@@ -4536,7 +4507,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="95.8"/>
@@ -4546,7 +4517,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -4556,7 +4527,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="94.1"/>
@@ -4566,7 +4537,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="90.9"/>
@@ -4576,7 +4547,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="91.8"/>
@@ -4586,7 +4557,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="96.3"/>
@@ -4596,7 +4567,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="92.3"/>
@@ -4606,7 +4577,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="95.7"/>
@@ -4616,7 +4587,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="92.1"/>
@@ -4626,7 +4597,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="94.9"/>
@@ -4636,7 +4607,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="93.1"/>
@@ -4646,7 +4617,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="94.5"/>
@@ -4656,7 +4627,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="94.2"/>
@@ -4666,7 +4637,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="97.6"/>
@@ -4676,7 +4647,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -4686,7 +4657,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="96.3"/>
@@ -4696,7 +4667,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="94.3"/>
@@ -4706,7 +4677,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="90.9"/>
@@ -4716,7 +4687,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="92.4"/>
@@ -4726,7 +4697,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="95.1"/>
@@ -4736,7 +4707,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="89.1"/>
@@ -4746,7 +4717,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="95.9"/>
@@ -4756,7 +4727,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="95"/>
@@ -4766,7 +4737,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="93.8"/>
@@ -4776,7 +4747,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -4786,7 +4757,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -4796,7 +4767,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="94.2"/>
@@ -4806,7 +4777,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="88.8"/>
@@ -4816,7 +4787,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="91.5"/>
@@ -4826,7 +4797,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="91.1"/>
@@ -4836,7 +4807,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="94.3"/>
@@ -4846,7 +4817,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="96.7"/>
@@ -4856,7 +4827,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="94.7"/>
@@ -4866,7 +4837,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -4876,7 +4847,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="93.3"/>
@@ -4886,7 +4857,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="91.2"/>
@@ -4896,7 +4867,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -4906,7 +4877,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="95.7"/>
@@ -4916,7 +4887,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="95.8"/>
@@ -4926,7 +4897,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -4936,7 +4907,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="93.8"/>
@@ -4946,7 +4917,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="93.2"/>
@@ -4956,7 +4927,7 @@
   <r>
     <s v="DTaP"/>
     <s v="≥3 Doses"/>
-    <s v="DTaP (≥3 Doses)"/>
+    <x v="4"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="92.2"/>
@@ -4966,7 +4937,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="94.1"/>
@@ -4976,7 +4947,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="87"/>
@@ -4986,7 +4957,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="90.7"/>
@@ -4996,7 +4967,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="91.3"/>
@@ -5006,7 +4977,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="89.5"/>
@@ -5016,7 +4987,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="92.5"/>
@@ -5026,7 +4997,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="93.8"/>
@@ -5036,7 +5007,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="95.4"/>
@@ -5046,7 +5017,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="91.1"/>
@@ -5056,7 +5027,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="92.5"/>
@@ -5066,7 +5037,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="88.9"/>
@@ -5076,7 +5047,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="90.6"/>
@@ -5086,7 +5057,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="94.3"/>
@@ -5096,7 +5067,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="91.1"/>
@@ -5106,7 +5077,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="93.9"/>
@@ -5116,7 +5087,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="90.9"/>
@@ -5126,7 +5097,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="93.1"/>
@@ -5136,7 +5107,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="91.2"/>
@@ -5146,7 +5117,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="91"/>
@@ -5156,7 +5127,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="94.5"/>
@@ -5166,7 +5137,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="96.7"/>
@@ -5176,7 +5147,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="92.2"/>
@@ -5186,7 +5157,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -5196,7 +5167,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="94.2"/>
@@ -5206,7 +5177,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="89"/>
@@ -5216,7 +5187,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="91.3"/>
@@ -5226,7 +5197,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="93.9"/>
@@ -5236,7 +5207,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="87.4"/>
@@ -5246,7 +5217,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="95"/>
@@ -5256,7 +5227,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -5266,7 +5237,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -5276,7 +5247,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="91.5"/>
@@ -5286,7 +5257,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="93.7"/>
@@ -5296,7 +5267,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="93.4"/>
@@ -5306,7 +5277,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="88"/>
@@ -5316,7 +5287,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="90.1"/>
@@ -5326,7 +5297,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="89.3"/>
@@ -5336,7 +5307,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -5346,7 +5317,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="96"/>
@@ -5356,7 +5327,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="92.4"/>
@@ -5366,7 +5337,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="91.5"/>
@@ -5376,7 +5347,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="92.5"/>
@@ -5386,7 +5357,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="90.3"/>
@@ -5396,7 +5367,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="92.3"/>
@@ -5406,7 +5377,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="95.3"/>
@@ -5416,7 +5387,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="94.3"/>
@@ -5426,7 +5397,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="89.2"/>
@@ -5436,7 +5407,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="93.3"/>
@@ -5446,7 +5417,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="91.8"/>
@@ -5456,7 +5427,7 @@
   <r>
     <s v="PCV"/>
     <s v="≥3 Doses"/>
-    <s v="PCV (≥3 Doses)"/>
+    <x v="5"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="89.3"/>
@@ -5466,7 +5437,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="93.9"/>
@@ -5476,7 +5447,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="88.1"/>
@@ -5486,7 +5457,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="91.3"/>
@@ -5496,7 +5467,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -5506,7 +5477,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="90.3"/>
@@ -5516,7 +5487,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="92.9"/>
@@ -5526,7 +5497,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="94.7"/>
@@ -5536,7 +5507,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="94.8"/>
@@ -5546,7 +5517,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="90.7"/>
@@ -5556,7 +5527,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -5566,7 +5537,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="90"/>
@@ -5576,7 +5547,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="91"/>
@@ -5586,7 +5557,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="95"/>
@@ -5596,7 +5567,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="91.7"/>
@@ -5606,7 +5577,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="95.1"/>
@@ -5616,7 +5587,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="91.7"/>
@@ -5626,7 +5597,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="94.7"/>
@@ -5636,7 +5607,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -5646,7 +5617,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="92.6"/>
@@ -5656,7 +5627,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="93.6"/>
@@ -5666,7 +5637,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="97.2"/>
@@ -5676,7 +5647,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="93.4"/>
@@ -5686,7 +5657,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="93.9"/>
@@ -5696,7 +5667,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -5706,7 +5677,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="89.8"/>
@@ -5716,7 +5687,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="91.5"/>
@@ -5726,7 +5697,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -5736,7 +5707,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="89"/>
@@ -5746,7 +5717,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="95.9"/>
@@ -5756,7 +5727,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="93.7"/>
@@ -5766,7 +5737,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="93.1"/>
@@ -5776,7 +5747,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="92.3"/>
@@ -5786,7 +5757,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="92.7"/>
@@ -5796,7 +5767,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="93.7"/>
@@ -5806,7 +5777,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="87.6"/>
@@ -5816,7 +5787,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="90.5"/>
@@ -5826,7 +5797,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="89.6"/>
@@ -5836,7 +5807,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="92.8"/>
@@ -5846,7 +5817,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="96.2"/>
@@ -5856,7 +5827,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="93.8"/>
@@ -5866,7 +5837,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="92.1"/>
@@ -5876,7 +5847,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="92"/>
@@ -5886,7 +5857,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="89.9"/>
@@ -5896,7 +5867,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="91.9"/>
@@ -5906,7 +5877,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="93.6"/>
@@ -5916,7 +5887,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="94"/>
@@ -5926,7 +5897,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="89.4"/>
@@ -5936,7 +5907,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="93"/>
@@ -5946,7 +5917,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="91.4"/>
@@ -5956,7 +5927,7 @@
   <r>
     <s v="Polio"/>
     <s v="≥3 Doses"/>
-    <s v="Polio (≥3 Doses)"/>
+    <x v="6"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="91.1"/>
@@ -5966,7 +5937,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="71.3"/>
@@ -5976,7 +5947,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="65"/>
@@ -5986,7 +5957,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="66.5"/>
@@ -5996,7 +5967,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="66.900000000000006"/>
@@ -6006,7 +5977,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="66.5"/>
@@ -6016,7 +5987,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="71.900000000000006"/>
@@ -6026,7 +5997,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="75.8"/>
@@ -6036,7 +6007,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="74.099999999999994"/>
@@ -6046,7 +6017,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="71.400000000000006"/>
@@ -6056,7 +6027,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="68.8"/>
@@ -6066,7 +6037,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="69.5"/>
@@ -6076,7 +6047,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="67.8"/>
@@ -6086,7 +6057,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="73.7"/>
@@ -6096,7 +6067,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="65.2"/>
@@ -6106,7 +6077,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="71.7"/>
@@ -6116,7 +6087,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="71.599999999999994"/>
@@ -6126,7 +6097,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="70.8"/>
@@ -6136,7 +6107,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="68.7"/>
@@ -6146,7 +6117,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="72.8"/>
@@ -6156,7 +6127,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="72.8"/>
@@ -6166,7 +6137,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="79.3"/>
@@ -6176,7 +6147,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="70.7"/>
@@ -6186,7 +6157,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="68.3"/>
@@ -6196,7 +6167,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="68.099999999999994"/>
@@ -6206,7 +6177,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="65.900000000000006"/>
@@ -6216,7 +6187,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="63.3"/>
@@ -6226,7 +6197,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="76.599999999999994"/>
@@ -6236,7 +6207,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="65.3"/>
@@ -6246,7 +6217,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="76.3"/>
@@ -6256,7 +6227,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="68.2"/>
@@ -6266,7 +6237,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="68.7"/>
@@ -6276,7 +6247,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="67.2"/>
@@ -6286,7 +6257,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="74.2"/>
@@ -6296,7 +6267,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="75.400000000000006"/>
@@ -6306,7 +6277,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="66.8"/>
@@ -6316,7 +6287,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="66.5"/>
@@ -6326,7 +6297,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="61.5"/>
@@ -6336,7 +6307,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="74.5"/>
@@ -6346,7 +6317,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="74"/>
@@ -6356,7 +6327,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="65.8"/>
@@ -6366,7 +6337,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="69.8"/>
@@ -6376,7 +6347,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="66.5"/>
@@ -6386,7 +6357,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="67.099999999999994"/>
@@ -6396,7 +6367,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="72.099999999999994"/>
@@ -6406,7 +6377,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="74"/>
@@ -6416,7 +6387,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="73.7"/>
@@ -6426,7 +6397,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="69.2"/>
@@ -6436,7 +6407,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="65.599999999999994"/>
@@ -6446,7 +6417,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="72.400000000000006"/>
@@ -6456,7 +6427,7 @@
   <r>
     <s v="Combined 7 Series"/>
     <m/>
-    <s v="Combined 7 Series ()"/>
+    <x v="7"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="65.099999999999994"/>
@@ -6466,7 +6437,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="80.7"/>
@@ -6476,7 +6447,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="78.8"/>
@@ -6486,7 +6457,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="78.2"/>
@@ -6496,7 +6467,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="78.8"/>
@@ -6506,7 +6477,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="79"/>
@@ -6516,7 +6487,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="81.900000000000006"/>
@@ -6526,7 +6497,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="85.2"/>
@@ -6536,7 +6507,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="83.5"/>
@@ -6546,7 +6517,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="79.7"/>
@@ -6556,7 +6527,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="79.400000000000006"/>
@@ -6566,7 +6537,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="78.2"/>
@@ -6576,7 +6547,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="78.7"/>
@@ -6586,7 +6557,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="83.2"/>
@@ -6596,7 +6567,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="75"/>
@@ -6606,7 +6577,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="84.4"/>
@@ -6616,7 +6587,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="80.5"/>
@@ -6626,7 +6597,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="80.7"/>
@@ -6636,7 +6607,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="80.2"/>
@@ -6646,7 +6617,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="83.7"/>
@@ -6656,7 +6627,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="80.900000000000006"/>
@@ -6666,7 +6637,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="88.5"/>
@@ -6676,7 +6647,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="81.400000000000006"/>
@@ -6686,7 +6657,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="79"/>
@@ -6696,7 +6667,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="76.7"/>
@@ -6706,7 +6677,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="75.099999999999994"/>
@@ -6716,7 +6687,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="78"/>
@@ -6726,7 +6697,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="84.2"/>
@@ -6736,7 +6707,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="74.3"/>
@@ -6746,7 +6717,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="85.9"/>
@@ -6756,7 +6727,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="79.900000000000006"/>
@@ -6766,7 +6737,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="80.5"/>
@@ -6776,7 +6747,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="79.7"/>
@@ -6786,7 +6757,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="82.8"/>
@@ -6796,7 +6767,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="84.7"/>
@@ -6806,7 +6777,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="75.2"/>
@@ -6816,7 +6787,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="76.7"/>
@@ -6826,7 +6797,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="75.099999999999994"/>
@@ -6836,7 +6807,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="82.1"/>
@@ -6846,7 +6817,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="85"/>
@@ -6856,7 +6827,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="75.8"/>
@@ -6866,7 +6837,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="77.3"/>
@@ -6876,7 +6847,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="75.2"/>
@@ -6886,7 +6857,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="77.5"/>
@@ -6896,7 +6867,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="80.099999999999994"/>
@@ -6906,7 +6877,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="86.4"/>
@@ -6916,7 +6887,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="84.2"/>
@@ -6926,7 +6897,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="79.900000000000006"/>
@@ -6936,7 +6907,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="76.7"/>
@@ -6946,7 +6917,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="81.900000000000006"/>
@@ -6956,7 +6927,7 @@
   <r>
     <s v="Hib"/>
     <s v="Full Series"/>
-    <s v="Hib (Full Series)"/>
+    <x v="8"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="76.400000000000006"/>
@@ -6966,7 +6937,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="73.900000000000006"/>
@@ -6976,7 +6947,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="67.8"/>
@@ -6986,7 +6957,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="71.2"/>
@@ -6996,7 +6967,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="73.8"/>
@@ -7006,7 +6977,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="69"/>
@@ -7016,7 +6987,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="77.2"/>
@@ -7026,7 +6997,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="82.8"/>
@@ -7036,7 +7007,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="79.900000000000006"/>
@@ -7046,7 +7017,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="71.7"/>
@@ -7056,7 +7027,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="76.099999999999994"/>
@@ -7066,7 +7037,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="69.5"/>
@@ -7076,7 +7047,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="78.400000000000006"/>
@@ -7086,7 +7057,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="77.2"/>
@@ -7096,7 +7067,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="73.7"/>
@@ -7106,7 +7077,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="75.400000000000006"/>
@@ -7116,7 +7087,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="77.400000000000006"/>
@@ -7126,7 +7097,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="73.900000000000006"/>
@@ -7136,7 +7107,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="71.099999999999994"/>
@@ -7146,7 +7117,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="76.599999999999994"/>
@@ -7156,7 +7127,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="79.3"/>
@@ -7166,7 +7137,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="80.099999999999994"/>
@@ -7176,7 +7147,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="74.5"/>
@@ -7186,7 +7157,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="77.099999999999994"/>
@@ -7196,7 +7167,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="69.400000000000006"/>
@@ -7206,7 +7177,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="72.099999999999994"/>
@@ -7216,7 +7187,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="69.8"/>
@@ -7226,7 +7197,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="79.400000000000006"/>
@@ -7236,7 +7207,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="71"/>
@@ -7246,7 +7217,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="83.3"/>
@@ -7256,7 +7227,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="73.400000000000006"/>
@@ -7266,7 +7237,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="75.5"/>
@@ -7276,7 +7247,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="71.8"/>
@@ -7286,7 +7257,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="77.599999999999994"/>
@@ -7296,7 +7267,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="80.2"/>
@@ -7306,7 +7277,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="70.5"/>
@@ -7316,7 +7287,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="68.8"/>
@@ -7326,7 +7297,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="70.8"/>
@@ -7336,7 +7307,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="76.400000000000006"/>
@@ -7346,7 +7317,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="87.1"/>
@@ -7356,7 +7327,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="76.400000000000006"/>
@@ -7366,7 +7337,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="73.5"/>
@@ -7376,7 +7347,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="70.900000000000006"/>
@@ -7386,7 +7357,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="72.900000000000006"/>
@@ -7396,7 +7367,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="77.3"/>
@@ -7406,7 +7377,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="79.2"/>
@@ -7416,7 +7387,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="80.7"/>
@@ -7426,7 +7397,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="73.400000000000006"/>
@@ -7436,7 +7407,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="71.8"/>
@@ -7446,7 +7417,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="77.8"/>
@@ -7456,7 +7427,7 @@
   <r>
     <s v="Rotavirus"/>
     <m/>
-    <s v="Rotavirus ()"/>
+    <x v="9"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="71.2"/>
@@ -7466,7 +7437,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="0"/>
     <s v="2014-2017"/>
     <n v="41.1"/>
@@ -7476,7 +7447,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="1"/>
     <s v="2014-2017"/>
     <n v="52.1"/>
@@ -7486,7 +7457,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="2"/>
     <s v="2014-2017"/>
     <n v="51.9"/>
@@ -7496,7 +7467,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="2014-2017"/>
     <n v="38.1"/>
@@ -7506,7 +7477,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="4"/>
     <s v="2014-2017"/>
     <n v="58.8"/>
@@ -7516,7 +7487,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="5"/>
     <s v="2014-2017"/>
     <n v="66.2"/>
@@ -7526,7 +7497,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="6"/>
     <s v="2014-2017"/>
     <n v="73.7"/>
@@ -7536,7 +7507,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="7"/>
     <s v="2014-2017"/>
     <n v="63.1"/>
@@ -7546,7 +7517,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="8"/>
     <s v="2014-2017"/>
     <n v="39.9"/>
@@ -7556,7 +7527,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="9"/>
     <s v="2014-2017"/>
     <n v="49.2"/>
@@ -7566,7 +7537,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="10"/>
     <s v="2014-2017"/>
     <n v="57.8"/>
@@ -7576,7 +7547,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="11"/>
     <s v="2014-2017"/>
     <n v="54.3"/>
@@ -7586,7 +7557,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="12"/>
     <s v="2014-2017"/>
     <n v="59.1"/>
@@ -7596,7 +7567,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="13"/>
     <s v="2014-2017"/>
     <n v="52.1"/>
@@ -7606,7 +7577,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="14"/>
     <s v="2014-2017"/>
     <n v="44.8"/>
@@ -7616,7 +7587,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="15"/>
     <s v="2014-2017"/>
     <n v="55.7"/>
@@ -7626,7 +7597,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="16"/>
     <s v="2014-2017"/>
     <n v="47.1"/>
@@ -7636,7 +7607,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="17"/>
     <s v="2014-2017"/>
     <n v="42.6"/>
@@ -7646,7 +7617,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="18"/>
     <s v="2014-2017"/>
     <n v="63.3"/>
@@ -7656,7 +7627,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="19"/>
     <s v="2014-2017"/>
     <n v="59"/>
@@ -7666,7 +7637,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="20"/>
     <s v="2014-2017"/>
     <n v="78"/>
@@ -7676,7 +7647,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="21"/>
     <s v="2014-2017"/>
     <n v="59.5"/>
@@ -7686,7 +7657,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="22"/>
     <s v="2014-2017"/>
     <n v="67.400000000000006"/>
@@ -7696,7 +7667,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="23"/>
     <s v="2014-2017"/>
     <n v="38"/>
@@ -7706,7 +7677,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="24"/>
     <s v="2014-2017"/>
     <n v="51.1"/>
@@ -7716,7 +7687,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="25"/>
     <s v="2014-2017"/>
     <n v="56.1"/>
@@ -7726,7 +7697,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="26"/>
     <s v="2014-2017"/>
     <n v="70.400000000000006"/>
@@ -7736,7 +7707,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="27"/>
     <s v="2014-2017"/>
     <n v="44.2"/>
@@ -7746,7 +7717,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="28"/>
     <s v="2014-2017"/>
     <n v="62.7"/>
@@ -7756,7 +7727,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="29"/>
     <s v="2014-2017"/>
     <n v="63.6"/>
@@ -7766,7 +7737,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="30"/>
     <s v="2014-2017"/>
     <n v="56.2"/>
@@ -7776,7 +7747,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="31"/>
     <s v="2014-2017"/>
     <n v="63.6"/>
@@ -7786,7 +7757,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="32"/>
     <s v="2014-2017"/>
     <n v="60.4"/>
@@ -7796,7 +7767,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="33"/>
     <s v="2014-2017"/>
     <n v="66.099999999999994"/>
@@ -7806,7 +7777,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="34"/>
     <s v="2014-2017"/>
     <n v="52.5"/>
@@ -7816,7 +7787,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="35"/>
     <s v="2014-2017"/>
     <n v="46.3"/>
@@ -7826,7 +7797,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="36"/>
     <s v="2014-2017"/>
     <n v="56.8"/>
@@ -7836,7 +7807,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="37"/>
     <s v="2014-2017"/>
     <n v="63.1"/>
@@ -7846,7 +7817,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="38"/>
     <s v="2014-2017"/>
     <n v="76.2"/>
@@ -7856,7 +7827,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="39"/>
     <s v="2014-2017"/>
     <n v="45"/>
@@ -7866,7 +7837,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="40"/>
     <s v="2014-2017"/>
     <n v="70"/>
@@ -7876,7 +7847,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="41"/>
     <s v="2014-2017"/>
     <n v="48.5"/>
@@ -7886,7 +7857,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="42"/>
     <s v="2014-2017"/>
     <n v="50.6"/>
@@ -7896,7 +7867,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="43"/>
     <s v="2014-2017"/>
     <n v="53.5"/>
@@ -7906,7 +7877,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="44"/>
     <s v="2014-2017"/>
     <n v="68.5"/>
@@ -7916,7 +7887,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="45"/>
     <s v="2014-2017"/>
     <n v="67.7"/>
@@ -7926,7 +7897,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="46"/>
     <s v="2014-2017"/>
     <n v="63.2"/>
@@ -7936,7 +7907,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="47"/>
     <s v="2014-2017"/>
     <n v="46.9"/>
@@ -7946,7 +7917,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="48"/>
     <s v="2014-2017"/>
     <n v="65"/>
@@ -7956,7 +7927,7 @@
   <r>
     <s v="Influenza"/>
     <m/>
-    <s v="Influenza ()"/>
+    <x v="10"/>
     <x v="49"/>
     <s v="2014-2017"/>
     <n v="48.9"/>
@@ -7967,8 +7938,92 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96FC5C83-6AF0-4EFD-9A79-64F6854457B4}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
-  <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB0F9CE6-9A08-4BB0-89F5-776D2D003B72}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K1:K13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96FC5C83-6AF0-4EFD-9A79-64F6854457B4}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
+  <location ref="A1:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8036,7 +8091,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="51">
+  <rowItems count="50">
     <i>
       <x/>
     </i>
@@ -8187,9 +8242,6 @@
     <i>
       <x v="49"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -8198,7 +8250,7 @@
     <dataField name="Vaccination Rate Estimation %" fld="5" subtotal="average" baseField="3" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -8284,17 +8336,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9452DEAB-B3E2-4AE4-B311-8FF937330E29}" name="VaccData" displayName="VaccData" ref="A1:H551" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9452DEAB-B3E2-4AE4-B311-8FF937330E29}" name="VaccData" displayName="VaccData" ref="A1:H551" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:H551" xr:uid="{66F1D0E6-A556-41AC-98AB-504C08E86A27}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B1195FBB-BDB3-43FB-8AD2-513B2E0C4199}" name="Vaccine" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{1EB17F88-F5D3-4FFD-BC27-15259C08F681}" name="Dose" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{40CC7BED-CA18-4B72-AFA8-FCBB5F8055B0}" name="Vaccing (Dose)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{53B3A5C4-171C-4FA9-B722-A5DF6E6E056C}" name="Geography" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{118D3D5B-0FCF-4998-9E32-2A2F85C92E6E}" name="Birth Year/Birth Cohort" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{F9376B3E-FBEF-4EC9-97C6-1CB98FE790B1}" name="Estimate (%)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{74D10A95-CCBB-43F9-BEC6-D19B4693A466}" name="95% CI (%)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{A8EE4DAA-B1C1-4714-830C-990BF871698B}" name="Sample Size" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B1195FBB-BDB3-43FB-8AD2-513B2E0C4199}" name="Vaccine" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1EB17F88-F5D3-4FFD-BC27-15259C08F681}" name="Dose" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{40CC7BED-CA18-4B72-AFA8-FCBB5F8055B0}" name="Vaccing (Dose)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{53B3A5C4-171C-4FA9-B722-A5DF6E6E056C}" name="Geography" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{118D3D5B-0FCF-4998-9E32-2A2F85C92E6E}" name="Birth Year/Birth Cohort" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F9376B3E-FBEF-4EC9-97C6-1CB98FE790B1}" name="Estimate (%)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{74D10A95-CCBB-43F9-BEC6-D19B4693A466}" name="95% CI (%)" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{A8EE4DAA-B1C1-4714-830C-990BF871698B}" name="Sample Size" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8597,10 +8649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D105DCFE-6865-4172-8FA6-B77D99F7E204}">
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8613,11 +8665,11 @@
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>589</v>
       </c>
@@ -8642,8 +8694,11 @@
       <c r="H1" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8668,8 +8723,11 @@
       <c r="H2" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8694,8 +8752,11 @@
       <c r="H3" s="2">
         <v>905</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8720,8 +8781,11 @@
       <c r="H4" s="1">
         <v>930</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -8746,8 +8810,11 @@
       <c r="H5" s="2">
         <v>1008</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8772,8 +8839,11 @@
       <c r="H6" s="1">
         <v>1141</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -8798,8 +8868,11 @@
       <c r="H7" s="2">
         <v>894</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8824,8 +8897,11 @@
       <c r="H8" s="1">
         <v>762</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -8850,8 +8926,11 @@
       <c r="H9" s="2">
         <v>873</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -8876,8 +8955,11 @@
       <c r="H10" s="1">
         <v>1171</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -8902,8 +8984,11 @@
       <c r="H11" s="2">
         <v>1090</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -8928,8 +9013,11 @@
       <c r="H12" s="1">
         <v>843</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -8954,8 +9042,11 @@
       <c r="H13" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -8981,7 +9072,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9098,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -22645,19 +22736,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24382AD9-8C6C-4A28-BAD5-61EFA418CC9D}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22668,418 +22759,410 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" t="s">
         <v>602</v>
       </c>
-      <c r="B1" t="s">
-        <v>603</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>82.163636363636357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>77.163636363636357</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>80.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>80.36363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>79.745454545454535</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>83.36363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>86.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>85.109090909090909</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>78.27272727272728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>81.827272727272728</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>80.372727272727261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>81.199999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>84.100000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>80.054545454545462</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>82.690909090909088</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>81.890909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>81.572727272727278</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>80.190909090909116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>82.690909090909088</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>83.809090909090898</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>89.009090909090915</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>82.927272727272737</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>83.490909090909085</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>78.300000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>78.881818181818176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>78.827272727272728</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>86.290909090909096</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>78.172727272727258</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>85.445454545454538</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>80.718181818181819</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>81.900000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>80.736363636363635</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>83.500000000000014</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>86.200000000000017</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>77.709090909090904</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>79.145454545454541</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>79.563636363636363</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>84.472727272727269</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>87.981818181818184</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>80.290909090909068</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>82.909090909090892</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>79.672727272727272</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>80.163636363636357</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>82.454545454545439</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>83.38181818181819</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>85.436363636363652</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>81.100000000000009</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>79.572727272727263</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>83.22727272727272</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>76.600000000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="B52" s="7">
-        <v>81.841272727272781</v>
       </c>
     </row>
   </sheetData>
@@ -23115,18 +23198,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
